--- a/data/pca/factorExposure/factorExposure_2018-08-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.03855727087730914</v>
+        <v>-0.0279435523540499</v>
       </c>
       <c r="C2">
-        <v>-0.04283695174227818</v>
+        <v>-0.01623873251382336</v>
       </c>
       <c r="D2">
-        <v>0.009636347226361685</v>
+        <v>0.02194834507853923</v>
       </c>
       <c r="E2">
-        <v>-0.04990009640816564</v>
+        <v>-0.0157506635711513</v>
       </c>
       <c r="F2">
-        <v>-0.1498038808209242</v>
+        <v>-0.006715231662957979</v>
       </c>
       <c r="G2">
-        <v>-0.0469481020408675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.08378308684091207</v>
+      </c>
+      <c r="H2">
+        <v>0.01966801030180317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.121093511665561</v>
+        <v>-0.08001574142828073</v>
       </c>
       <c r="C3">
-        <v>-0.0237761713766028</v>
+        <v>0.01325085781735427</v>
       </c>
       <c r="D3">
-        <v>-0.05499268634436832</v>
+        <v>0.02007975729803068</v>
       </c>
       <c r="E3">
-        <v>-0.09210405645516474</v>
+        <v>-0.008137401706937787</v>
       </c>
       <c r="F3">
-        <v>-0.3840958920148179</v>
+        <v>0.04780966755733335</v>
       </c>
       <c r="G3">
-        <v>-0.1617003499796794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.2639765037176117</v>
+      </c>
+      <c r="H3">
+        <v>0.03901206596141395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.0544841449161288</v>
+        <v>-0.04830110716196343</v>
       </c>
       <c r="C4">
-        <v>-0.008331305167207799</v>
+        <v>-0.003633819361963053</v>
       </c>
       <c r="D4">
-        <v>0.03518718322562993</v>
+        <v>0.04130975565812431</v>
       </c>
       <c r="E4">
-        <v>-0.06571811085569687</v>
+        <v>0.01816419390156844</v>
       </c>
       <c r="F4">
-        <v>-0.08329052753098459</v>
+        <v>-0.04862478322153908</v>
       </c>
       <c r="G4">
-        <v>-0.04448902734884792</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.05953668550014155</v>
+      </c>
+      <c r="H4">
+        <v>0.0297899064332989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0139284372659484</v>
+        <v>-0.02608372401329773</v>
       </c>
       <c r="C6">
-        <v>-0.01128838022684057</v>
+        <v>-0.003913953621429278</v>
       </c>
       <c r="D6">
-        <v>-0.008439414752229393</v>
+        <v>0.05139962368558393</v>
       </c>
       <c r="E6">
-        <v>-0.02162076690237566</v>
+        <v>0.003659919468088994</v>
       </c>
       <c r="F6">
-        <v>-0.01430881993613045</v>
+        <v>-0.03217981158348535</v>
       </c>
       <c r="G6">
-        <v>0.005282589091336691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01922441283157362</v>
+      </c>
+      <c r="H6">
+        <v>0.05278622411327543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02619378975246486</v>
+        <v>-0.02027425907464656</v>
       </c>
       <c r="C7">
-        <v>-0.0335617907154141</v>
+        <v>-0.003171441034487211</v>
       </c>
       <c r="D7">
-        <v>-0.006780703922306669</v>
+        <v>0.02305895855411404</v>
       </c>
       <c r="E7">
-        <v>-0.03541888406018943</v>
+        <v>0.03326333963847</v>
       </c>
       <c r="F7">
-        <v>-0.06046774418947458</v>
+        <v>-0.01038163525603102</v>
       </c>
       <c r="G7">
-        <v>-0.05529557887778124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03950718490974685</v>
+      </c>
+      <c r="H7">
+        <v>0.0163100700177365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01938782998601742</v>
+        <v>-0.007193508814944299</v>
       </c>
       <c r="C8">
-        <v>0.002211544104768931</v>
+        <v>0.002502381240266075</v>
       </c>
       <c r="D8">
-        <v>0.01041637651083068</v>
+        <v>0.01107264531037535</v>
       </c>
       <c r="E8">
-        <v>-0.06850531514337083</v>
+        <v>0.01005486129408979</v>
       </c>
       <c r="F8">
-        <v>-0.0942105070766802</v>
+        <v>-0.02036372008257687</v>
       </c>
       <c r="G8">
-        <v>-0.06325609292505655</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.06018248539325734</v>
+      </c>
+      <c r="H8">
+        <v>0.009387037931489288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04601714239747313</v>
+        <v>-0.04039198420827614</v>
       </c>
       <c r="C9">
-        <v>0.005507492791312753</v>
+        <v>0.0008963564351512014</v>
       </c>
       <c r="D9">
-        <v>0.02940784186548557</v>
+        <v>0.03311628059482276</v>
       </c>
       <c r="E9">
-        <v>-0.06736819148559878</v>
+        <v>0.01654736267183593</v>
       </c>
       <c r="F9">
-        <v>-0.07589832248474072</v>
+        <v>-0.02444791942997789</v>
       </c>
       <c r="G9">
-        <v>-0.04484126948226767</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.06537296312989802</v>
+      </c>
+      <c r="H9">
+        <v>0.02740030975879444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.04026349104569393</v>
+        <v>-0.1009034539351704</v>
       </c>
       <c r="C10">
-        <v>0.01055865242786604</v>
+        <v>0.03181253558304192</v>
       </c>
       <c r="D10">
-        <v>0.02686714170341496</v>
+        <v>-0.1522400875336798</v>
       </c>
       <c r="E10">
-        <v>0.1088228651530684</v>
+        <v>-0.007387394950661093</v>
       </c>
       <c r="F10">
-        <v>-0.0736440074609398</v>
+        <v>0.04884841919026236</v>
       </c>
       <c r="G10">
-        <v>0.03125219493823452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01850431361467027</v>
+      </c>
+      <c r="H10">
+        <v>0.001533800361799434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03512787752814187</v>
+        <v>-0.02200031099707376</v>
       </c>
       <c r="C11">
-        <v>-0.01911927173305255</v>
+        <v>0.008463085307027248</v>
       </c>
       <c r="D11">
-        <v>0.0009544844237600598</v>
+        <v>0.03671189126454021</v>
       </c>
       <c r="E11">
-        <v>-0.03500810073053329</v>
+        <v>-0.005317659949568451</v>
       </c>
       <c r="F11">
-        <v>-0.03588940096481937</v>
+        <v>-0.01102757135656278</v>
       </c>
       <c r="G11">
-        <v>-0.01841148226171163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.03701475543561423</v>
+      </c>
+      <c r="H11">
+        <v>0.02941697410405519</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04276868947306766</v>
+        <v>-0.03009442154943279</v>
       </c>
       <c r="C12">
-        <v>-0.007652621585080702</v>
+        <v>0.006729759392338739</v>
       </c>
       <c r="D12">
-        <v>0.009285194705799232</v>
+        <v>0.03812453924057642</v>
       </c>
       <c r="E12">
-        <v>-0.04353469443951602</v>
+        <v>0.006103530292185905</v>
       </c>
       <c r="F12">
-        <v>-0.0182849797741174</v>
+        <v>-0.01801440132238083</v>
       </c>
       <c r="G12">
-        <v>-0.01508911147509888</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.01569012328901439</v>
+      </c>
+      <c r="H12">
+        <v>0.01467687685889078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.02176234411004423</v>
+        <v>-0.02789634631185207</v>
       </c>
       <c r="C13">
-        <v>-0.03500985985532042</v>
+        <v>-0.01301258983942885</v>
       </c>
       <c r="D13">
-        <v>0.003007010496249094</v>
+        <v>0.003794849902367137</v>
       </c>
       <c r="E13">
-        <v>-0.01547811675376967</v>
+        <v>-0.01832480881364808</v>
       </c>
       <c r="F13">
-        <v>-0.09456753471374513</v>
+        <v>-0.01015623357622465</v>
       </c>
       <c r="G13">
-        <v>-0.03240623513256933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.07181244216054611</v>
+      </c>
+      <c r="H13">
+        <v>0.02797510279356641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01400765251816294</v>
+        <v>-0.01745363574496696</v>
       </c>
       <c r="C14">
-        <v>-0.00739680750769233</v>
+        <v>-0.0002841622222351362</v>
       </c>
       <c r="D14">
-        <v>0.006678579690173121</v>
+        <v>0.004838307015239187</v>
       </c>
       <c r="E14">
-        <v>-0.03354086568427231</v>
+        <v>0.007659600882706052</v>
       </c>
       <c r="F14">
-        <v>-0.06661960344717137</v>
+        <v>-0.01558244292964856</v>
       </c>
       <c r="G14">
-        <v>-0.06272476761808062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.0477549506107078</v>
+      </c>
+      <c r="H14">
+        <v>-0.01593475062099967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02605172163147478</v>
+        <v>-0.02302868475295129</v>
       </c>
       <c r="C16">
-        <v>-0.01760879201212613</v>
+        <v>0.008865331192922028</v>
       </c>
       <c r="D16">
-        <v>0.003291379512951218</v>
+        <v>0.03316659516237437</v>
       </c>
       <c r="E16">
-        <v>-0.03280613488107537</v>
+        <v>-0.0001734505075682437</v>
       </c>
       <c r="F16">
-        <v>-0.0431734595118644</v>
+        <v>-0.0156349067786447</v>
       </c>
       <c r="G16">
-        <v>-0.02147494727298209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.03359214298092399</v>
+      </c>
+      <c r="H16">
+        <v>0.02313267745527101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04314844314849588</v>
+        <v>-0.03504223194393731</v>
       </c>
       <c r="C19">
-        <v>-0.01957783196676961</v>
+        <v>0.0006832167978533514</v>
       </c>
       <c r="D19">
-        <v>0.0003622535456626626</v>
+        <v>0.01572907531407828</v>
       </c>
       <c r="E19">
-        <v>-0.04959633501059577</v>
+        <v>-0.001318841882936435</v>
       </c>
       <c r="F19">
-        <v>-0.1059511452396155</v>
+        <v>-0.02262374414800056</v>
       </c>
       <c r="G19">
-        <v>-0.04192364178795013</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.07799696981380476</v>
+      </c>
+      <c r="H19">
+        <v>0.03898050993319632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001332618586439057</v>
+        <v>-0.01045955776080301</v>
       </c>
       <c r="C20">
-        <v>-0.01259319182206489</v>
+        <v>-0.006504846362571552</v>
       </c>
       <c r="D20">
-        <v>0.01121188737230858</v>
+        <v>0.004637480880792216</v>
       </c>
       <c r="E20">
-        <v>-0.03570896859471453</v>
+        <v>-6.016871177523407e-05</v>
       </c>
       <c r="F20">
-        <v>-0.06674648336176885</v>
+        <v>-0.009636064444221916</v>
       </c>
       <c r="G20">
-        <v>-0.06888949787044565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05377503281147376</v>
+      </c>
+      <c r="H20">
+        <v>-0.009150821178941414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0001407841241612579</v>
+        <v>-0.02044155793748533</v>
       </c>
       <c r="C21">
-        <v>-0.00115133481853421</v>
+        <v>-0.006128780012925493</v>
       </c>
       <c r="D21">
-        <v>-0.01278310606414975</v>
+        <v>0.008498278717911893</v>
       </c>
       <c r="E21">
-        <v>-0.03997794068170243</v>
+        <v>0.01199435645713326</v>
       </c>
       <c r="F21">
-        <v>-0.06438740520874428</v>
+        <v>-0.005079179026825155</v>
       </c>
       <c r="G21">
-        <v>-0.02351299410699089</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.0572759387664543</v>
+      </c>
+      <c r="H21">
+        <v>0.009877832481536735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03292318791371509</v>
+        <v>-0.02103947090047091</v>
       </c>
       <c r="C24">
-        <v>-0.01706104505099093</v>
+        <v>0.003322241500466414</v>
       </c>
       <c r="D24">
-        <v>0.009283013465200588</v>
+        <v>0.03371135438061885</v>
       </c>
       <c r="E24">
-        <v>-0.01901930343346912</v>
+        <v>-0.0003273258845762433</v>
       </c>
       <c r="F24">
-        <v>-0.03802672416279636</v>
+        <v>-0.009978448981132147</v>
       </c>
       <c r="G24">
-        <v>-0.01506832294908264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.03060894040548405</v>
+      </c>
+      <c r="H24">
+        <v>0.02716788608389424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03180779364318597</v>
+        <v>-0.03016082218960246</v>
       </c>
       <c r="C25">
-        <v>-0.009733186492903036</v>
+        <v>0.001231758614076338</v>
       </c>
       <c r="D25">
-        <v>0.002030180167401094</v>
+        <v>0.03326034716625168</v>
       </c>
       <c r="E25">
-        <v>-0.03975496258419931</v>
+        <v>0.001255700418067988</v>
       </c>
       <c r="F25">
-        <v>-0.03456790022233702</v>
+        <v>-0.01682261291547419</v>
       </c>
       <c r="G25">
-        <v>-0.002150036999943288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03536697651237343</v>
+      </c>
+      <c r="H25">
+        <v>0.02923963159287197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02295367336136114</v>
+        <v>-0.02119364429129733</v>
       </c>
       <c r="C26">
-        <v>-0.02928488469904025</v>
+        <v>-0.01658981499902109</v>
       </c>
       <c r="D26">
-        <v>-0.01920345042341703</v>
+        <v>0.003046623990970578</v>
       </c>
       <c r="E26">
-        <v>-0.03639364990091357</v>
+        <v>-0.007479651202504762</v>
       </c>
       <c r="F26">
-        <v>-0.06106171886998425</v>
+        <v>-0.000594433008562095</v>
       </c>
       <c r="G26">
-        <v>-0.02868551787356963</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03900474826305601</v>
+      </c>
+      <c r="H26">
+        <v>-0.00182303624416813</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.07282967328773389</v>
+        <v>-0.02818467174095883</v>
       </c>
       <c r="C27">
-        <v>-0.01572542284074129</v>
+        <v>0.01085395672609767</v>
       </c>
       <c r="D27">
-        <v>0.04764850772898906</v>
+        <v>0.01813843003330665</v>
       </c>
       <c r="E27">
-        <v>-0.05386583771575709</v>
+        <v>0.005471273801025422</v>
       </c>
       <c r="F27">
-        <v>-0.06275802391516473</v>
+        <v>-0.02069553723870952</v>
       </c>
       <c r="G27">
-        <v>-0.04675909983135432</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.02947952244586012</v>
+      </c>
+      <c r="H27">
+        <v>-0.001549689440195816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.0583181377600257</v>
+        <v>-0.1507584392384805</v>
       </c>
       <c r="C28">
-        <v>0.02771295350897492</v>
+        <v>0.03423294910761</v>
       </c>
       <c r="D28">
-        <v>0.05158921125418823</v>
+        <v>-0.2232974560976844</v>
       </c>
       <c r="E28">
-        <v>0.1645712984536899</v>
+        <v>-0.00473406816039271</v>
       </c>
       <c r="F28">
-        <v>-0.09166010528065499</v>
+        <v>0.05474283694640586</v>
       </c>
       <c r="G28">
-        <v>0.003644362205753374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.004032569535580437</v>
+      </c>
+      <c r="H28">
+        <v>-0.01577866162500951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02268184056623295</v>
+        <v>-0.02211040056658853</v>
       </c>
       <c r="C29">
-        <v>-0.001419456384915712</v>
+        <v>0.001836568305344771</v>
       </c>
       <c r="D29">
-        <v>0.01206913719228493</v>
+        <v>0.008382881448244566</v>
       </c>
       <c r="E29">
-        <v>-0.05060331891971941</v>
+        <v>0.009367496792899103</v>
       </c>
       <c r="F29">
-        <v>-0.05131456781017741</v>
+        <v>-0.01871844546974287</v>
       </c>
       <c r="G29">
-        <v>-0.05980761071687459</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.04080029735909724</v>
+      </c>
+      <c r="H29">
+        <v>-0.01632917150473773</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09221419702419936</v>
+        <v>-0.0539841716299852</v>
       </c>
       <c r="C30">
-        <v>-0.05458381846065063</v>
+        <v>-0.003299027977882106</v>
       </c>
       <c r="D30">
-        <v>0.041853623325557</v>
+        <v>0.06675585157444353</v>
       </c>
       <c r="E30">
-        <v>-0.08466327536030362</v>
+        <v>-0.0373201793585167</v>
       </c>
       <c r="F30">
-        <v>-0.06528450787639752</v>
+        <v>-0.05413906960877548</v>
       </c>
       <c r="G30">
-        <v>-0.03716319391464537</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.07285576271958102</v>
+      </c>
+      <c r="H30">
+        <v>0.03813224223746228</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06483455056892953</v>
+        <v>-0.05554375096976624</v>
       </c>
       <c r="C31">
-        <v>-0.0498659899435453</v>
+        <v>0.01552481498769556</v>
       </c>
       <c r="D31">
-        <v>-0.001955189640125419</v>
+        <v>0.02876579500939417</v>
       </c>
       <c r="E31">
-        <v>-0.03241099437919497</v>
+        <v>-0.00986586443380187</v>
       </c>
       <c r="F31">
-        <v>-0.04265242076808012</v>
+        <v>-0.01507916740411964</v>
       </c>
       <c r="G31">
-        <v>-0.07455862455339624</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.0265111736698704</v>
+      </c>
+      <c r="H31">
+        <v>-0.01362785846699774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.021384434400195</v>
+        <v>-0.01240039860596753</v>
       </c>
       <c r="C32">
-        <v>-0.007932976310883796</v>
+        <v>0.01425780091519305</v>
       </c>
       <c r="D32">
-        <v>0.01309503080647212</v>
+        <v>0.003495330360250588</v>
       </c>
       <c r="E32">
-        <v>-0.0755177675045943</v>
+        <v>0.01816481303824811</v>
       </c>
       <c r="F32">
-        <v>-0.06506278720937661</v>
+        <v>-0.04146923196616284</v>
       </c>
       <c r="G32">
-        <v>-0.04433072852087275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.06199777420459991</v>
+      </c>
+      <c r="H32">
+        <v>0.04457755958786972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.05585129960697845</v>
+        <v>-0.04053779013472081</v>
       </c>
       <c r="C33">
-        <v>-0.03744172804481188</v>
+        <v>0.001717729315116375</v>
       </c>
       <c r="D33">
-        <v>-0.0238567388235808</v>
+        <v>0.03121587702430295</v>
       </c>
       <c r="E33">
-        <v>-0.06736446208845048</v>
+        <v>-0.024370172573232</v>
       </c>
       <c r="F33">
-        <v>-0.09026089158360953</v>
+        <v>-0.0006529236563994816</v>
       </c>
       <c r="G33">
-        <v>-0.0422563420772768</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.0640968614465232</v>
+      </c>
+      <c r="H33">
+        <v>0.01774042302395432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03465030790075583</v>
+        <v>-0.02741331510338303</v>
       </c>
       <c r="C34">
-        <v>-0.01609652853154581</v>
+        <v>0.01739332036402259</v>
       </c>
       <c r="D34">
-        <v>0.01122291366610631</v>
+        <v>0.03468679936573152</v>
       </c>
       <c r="E34">
-        <v>-0.04541848073169993</v>
+        <v>0.005111506409009188</v>
       </c>
       <c r="F34">
-        <v>-0.04699941368101885</v>
+        <v>-0.01729774446244569</v>
       </c>
       <c r="G34">
-        <v>-0.01409274662349914</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0304188833065925</v>
+      </c>
+      <c r="H34">
+        <v>0.02453775733637224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01485031106052543</v>
+        <v>-0.02239898105215055</v>
       </c>
       <c r="C36">
-        <v>-0.003733898196900117</v>
+        <v>-0.003000237050400285</v>
       </c>
       <c r="D36">
-        <v>0.006999887800252618</v>
+        <v>-0.0009223450287616726</v>
       </c>
       <c r="E36">
-        <v>-0.02600286832366834</v>
+        <v>0.002165073952040434</v>
       </c>
       <c r="F36">
-        <v>-0.02780394339491838</v>
+        <v>-0.006776693068756196</v>
       </c>
       <c r="G36">
-        <v>-0.03193571194856255</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02137311200884781</v>
+      </c>
+      <c r="H36">
+        <v>-0.003082594097970656</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001626154502136763</v>
+        <v>-0.02153325383728415</v>
       </c>
       <c r="C38">
-        <v>0.01723300831211655</v>
+        <v>0.01642469740558628</v>
       </c>
       <c r="D38">
-        <v>-0.007084548140815616</v>
+        <v>0.001906330190242197</v>
       </c>
       <c r="E38">
-        <v>0.003054218077108057</v>
+        <v>0.005172203176402516</v>
       </c>
       <c r="F38">
-        <v>-0.01719882242883657</v>
+        <v>-0.009137029063842766</v>
       </c>
       <c r="G38">
-        <v>0.01183115152414302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.03090664076344377</v>
+      </c>
+      <c r="H38">
+        <v>0.02213115755802778</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04085696104673739</v>
+        <v>-0.02062610829578681</v>
       </c>
       <c r="C39">
-        <v>-0.03672643302083661</v>
+        <v>0.001180844476929293</v>
       </c>
       <c r="D39">
-        <v>0.01036458549794273</v>
+        <v>0.07436391787081718</v>
       </c>
       <c r="E39">
-        <v>-0.04620571178420249</v>
+        <v>-0.006564367620734177</v>
       </c>
       <c r="F39">
-        <v>-0.05200531644097565</v>
+        <v>-0.02283563625028779</v>
       </c>
       <c r="G39">
-        <v>-0.0100973657626318</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.05896984079579623</v>
+      </c>
+      <c r="H39">
+        <v>0.05215282425801122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03226342914926958</v>
+        <v>-0.03474709023575275</v>
       </c>
       <c r="C40">
-        <v>-0.06435928275850565</v>
+        <v>0.002120796107398941</v>
       </c>
       <c r="D40">
-        <v>0.01448765961448535</v>
+        <v>0.01845302873826737</v>
       </c>
       <c r="E40">
-        <v>-0.03355300568231188</v>
+        <v>-0.02288116795677579</v>
       </c>
       <c r="F40">
-        <v>-0.09785317432961332</v>
+        <v>-0.02475948395219308</v>
       </c>
       <c r="G40">
-        <v>-0.04307208645660617</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.05415855962025975</v>
+      </c>
+      <c r="H40">
+        <v>0.04763016838678305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.002755023102534841</v>
+        <v>-0.01307352443446633</v>
       </c>
       <c r="C41">
-        <v>-0.002269305790672742</v>
+        <v>0.0007404655452556755</v>
       </c>
       <c r="D41">
-        <v>-0.003315684274331153</v>
+        <v>-0.01283198645812239</v>
       </c>
       <c r="E41">
-        <v>-0.01291329146179315</v>
+        <v>-0.001244128119417154</v>
       </c>
       <c r="F41">
-        <v>-0.01598711864484196</v>
+        <v>-0.0008935637805946807</v>
       </c>
       <c r="G41">
-        <v>-0.05541227410936952</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01088699114630725</v>
+      </c>
+      <c r="H41">
+        <v>-0.01548830887030641</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3865543395011574</v>
+        <v>-0.1959039141105655</v>
       </c>
       <c r="C42">
-        <v>0.1299919322178987</v>
+        <v>-0.07504124519250457</v>
       </c>
       <c r="D42">
-        <v>-0.8605390993762628</v>
+        <v>0.3875866146640979</v>
       </c>
       <c r="E42">
-        <v>0.1592312681463347</v>
+        <v>-0.1509106040157605</v>
       </c>
       <c r="F42">
-        <v>0.1686668017111811</v>
+        <v>0.8543356606895494</v>
       </c>
       <c r="G42">
-        <v>-0.05435736088717532</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1828119808335265</v>
+      </c>
+      <c r="H42">
+        <v>-0.01319308264736707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005369724180807745</v>
+        <v>-0.01189655384817444</v>
       </c>
       <c r="C43">
-        <v>-0.005325993917159802</v>
+        <v>-0.001451892652476819</v>
       </c>
       <c r="D43">
-        <v>-0.01513950470974348</v>
+        <v>-0.01536195875810546</v>
       </c>
       <c r="E43">
-        <v>-0.01782223251668089</v>
+        <v>-0.007252905972995703</v>
       </c>
       <c r="F43">
-        <v>-0.02786897885969328</v>
+        <v>0.01015318935697456</v>
       </c>
       <c r="G43">
-        <v>-0.05115755400043843</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.01648925766875663</v>
+      </c>
+      <c r="H43">
+        <v>-0.01019039271018658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02070670321281083</v>
+        <v>-0.01517255314516425</v>
       </c>
       <c r="C44">
-        <v>-0.01936657117908276</v>
+        <v>0.0007232577053025055</v>
       </c>
       <c r="D44">
-        <v>-0.02427265225856637</v>
+        <v>0.02425940784457551</v>
       </c>
       <c r="E44">
-        <v>-0.07451642736533</v>
+        <v>-0.001719465435358065</v>
       </c>
       <c r="F44">
-        <v>-0.1709072293510462</v>
+        <v>0.008992179502210951</v>
       </c>
       <c r="G44">
-        <v>-0.1603356619515716</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.08977201811439046</v>
+      </c>
+      <c r="H44">
+        <v>0.01492936286627879</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02137362897600385</v>
+        <v>-0.02030880408184036</v>
       </c>
       <c r="C46">
-        <v>-0.01684939078344328</v>
+        <v>-0.002891616462987097</v>
       </c>
       <c r="D46">
-        <v>-0.0100483142893464</v>
+        <v>0.01484315367839345</v>
       </c>
       <c r="E46">
-        <v>-0.06187098002279998</v>
+        <v>-0.001921692976535861</v>
       </c>
       <c r="F46">
-        <v>-0.06453056559170328</v>
+        <v>-0.01734801878332933</v>
       </c>
       <c r="G46">
-        <v>-0.06024273513698158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05630402913764702</v>
+      </c>
+      <c r="H46">
+        <v>-0.01387256681235228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.1000183855672681</v>
+        <v>-0.07588094175892501</v>
       </c>
       <c r="C47">
-        <v>-0.03403385623751459</v>
+        <v>0.03094215869067474</v>
       </c>
       <c r="D47">
-        <v>0.02079102124666071</v>
+        <v>0.04161361466747831</v>
       </c>
       <c r="E47">
-        <v>-0.03422813060751859</v>
+        <v>-0.005142542181777265</v>
       </c>
       <c r="F47">
-        <v>-0.004841625038332266</v>
+        <v>-0.02571791723562494</v>
       </c>
       <c r="G47">
-        <v>-0.08807956839870472</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.00779712396325846</v>
+      </c>
+      <c r="H47">
+        <v>-0.03044872120836688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01690890039174016</v>
+        <v>-0.02291681607527006</v>
       </c>
       <c r="C48">
-        <v>-0.01428110488093802</v>
+        <v>0.007146101479591023</v>
       </c>
       <c r="D48">
-        <v>-0.003528222366597411</v>
+        <v>0.004778445636129607</v>
       </c>
       <c r="E48">
-        <v>-0.03343717985950782</v>
+        <v>-0.002763727067330317</v>
       </c>
       <c r="F48">
-        <v>-0.04472141817168101</v>
+        <v>-0.008938829569726116</v>
       </c>
       <c r="G48">
-        <v>-0.01339062790821558</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0303374709264271</v>
+      </c>
+      <c r="H48">
+        <v>0.001620746033970622</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09233962251942746</v>
+        <v>-0.07233531522167079</v>
       </c>
       <c r="C50">
-        <v>-0.04304981997955131</v>
+        <v>0.02732674065839208</v>
       </c>
       <c r="D50">
-        <v>0.005805864344613402</v>
+        <v>0.04706667704754327</v>
       </c>
       <c r="E50">
-        <v>-0.05607836551110014</v>
+        <v>0.009236986359976126</v>
       </c>
       <c r="F50">
-        <v>-0.03365318331839692</v>
+        <v>-0.02195849159627418</v>
       </c>
       <c r="G50">
-        <v>-0.03586322689586546</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02708470331147642</v>
+      </c>
+      <c r="H50">
+        <v>-0.02493907704757575</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02208962746824258</v>
+        <v>-0.02117156409699395</v>
       </c>
       <c r="C51">
-        <v>-0.01913019171736384</v>
+        <v>-0.0003329989664612272</v>
       </c>
       <c r="D51">
-        <v>-0.01366876993825284</v>
+        <v>-0.007331739971571117</v>
       </c>
       <c r="E51">
-        <v>-0.01880673825190678</v>
+        <v>-0.006665980989385791</v>
       </c>
       <c r="F51">
-        <v>-0.140960924372259</v>
+        <v>0.01269480448508996</v>
       </c>
       <c r="G51">
-        <v>-0.04997528896170145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.07278196240782135</v>
+      </c>
+      <c r="H51">
+        <v>0.02560895347691077</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1029302022385963</v>
+        <v>-0.09054669786916202</v>
       </c>
       <c r="C53">
-        <v>-0.04929381018301557</v>
+        <v>0.03663414390084303</v>
       </c>
       <c r="D53">
-        <v>0.02220550660062742</v>
+        <v>0.07861766698051006</v>
       </c>
       <c r="E53">
-        <v>-0.0456209240612207</v>
+        <v>-0.003604937285504436</v>
       </c>
       <c r="F53">
-        <v>0.05672289868139916</v>
+        <v>-0.05324279531728392</v>
       </c>
       <c r="G53">
-        <v>-0.03249892913110238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05316929941564841</v>
+      </c>
+      <c r="H53">
+        <v>-0.03790263741435731</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01726771712136825</v>
+        <v>-0.02532711825483153</v>
       </c>
       <c r="C54">
-        <v>-0.005355490085429765</v>
+        <v>0.01202979355310953</v>
       </c>
       <c r="D54">
-        <v>0.01747160231830314</v>
+        <v>-0.01659329715236781</v>
       </c>
       <c r="E54">
-        <v>-0.03346317948902144</v>
+        <v>0.006157919812063558</v>
       </c>
       <c r="F54">
-        <v>-0.06543026247186087</v>
+        <v>-0.009436355552066861</v>
       </c>
       <c r="G54">
-        <v>-0.07910832754750205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03755046122669638</v>
+      </c>
+      <c r="H54">
+        <v>-0.01446066484047009</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1009765248294483</v>
+        <v>-0.07658340147730913</v>
       </c>
       <c r="C55">
-        <v>-0.01187568657468397</v>
+        <v>0.03205625644779953</v>
       </c>
       <c r="D55">
-        <v>0.0251781050238065</v>
+        <v>0.07628075859103325</v>
       </c>
       <c r="E55">
-        <v>-0.05439319500714184</v>
+        <v>0.007436317777431255</v>
       </c>
       <c r="F55">
-        <v>0.04663059702378649</v>
+        <v>-0.04319880612016963</v>
       </c>
       <c r="G55">
-        <v>-0.06618624360209424</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03058440206070032</v>
+      </c>
+      <c r="H55">
+        <v>-0.04619541169846326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1458883887291242</v>
+        <v>-0.1261997962404779</v>
       </c>
       <c r="C56">
-        <v>-0.05605058922419615</v>
+        <v>0.05725684893145222</v>
       </c>
       <c r="D56">
-        <v>0.08393526341425014</v>
+        <v>0.09961225874731981</v>
       </c>
       <c r="E56">
-        <v>-0.0511532972106012</v>
+        <v>-0.0007916115535108234</v>
       </c>
       <c r="F56">
-        <v>0.1460658860364547</v>
+        <v>-0.08624303100980918</v>
       </c>
       <c r="G56">
-        <v>0.008058543862290888</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.09231118965012745</v>
+      </c>
+      <c r="H56">
+        <v>-0.02921951720229599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04302505697654398</v>
+        <v>-0.04005295144683532</v>
       </c>
       <c r="C57">
-        <v>-0.02975583581437836</v>
+        <v>-0.009659588213841247</v>
       </c>
       <c r="D57">
-        <v>-0.01015546819237322</v>
+        <v>0.0267255411826822</v>
       </c>
       <c r="E57">
-        <v>-0.004882023926981098</v>
+        <v>-0.0117846288968552</v>
       </c>
       <c r="F57">
-        <v>-0.07488003080818965</v>
+        <v>-0.01378452565307762</v>
       </c>
       <c r="G57">
-        <v>-0.03863262129265086</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.06294510411791437</v>
+      </c>
+      <c r="H57">
+        <v>0.01201078755168648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1983315194605572</v>
+        <v>-0.1444875924550899</v>
       </c>
       <c r="C58">
-        <v>-0.1093288251115516</v>
+        <v>0.04359762628908305</v>
       </c>
       <c r="D58">
-        <v>-0.03874095448574212</v>
+        <v>0.1315645664726999</v>
       </c>
       <c r="E58">
-        <v>-0.2308140038842339</v>
+        <v>-0.1189619383979286</v>
       </c>
       <c r="F58">
-        <v>-0.2557863334849398</v>
+        <v>0.03615100345264166</v>
       </c>
       <c r="G58">
-        <v>0.02346510819072599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.6836901292519</v>
+      </c>
+      <c r="H58">
+        <v>-0.5358188527381857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05528343373616797</v>
+        <v>-0.1556794016452178</v>
       </c>
       <c r="C59">
-        <v>0.004264186166428757</v>
+        <v>0.04153802097100886</v>
       </c>
       <c r="D59">
-        <v>0.06572285546942128</v>
+        <v>-0.2197930586482373</v>
       </c>
       <c r="E59">
-        <v>0.1280529240283742</v>
+        <v>-0.02333052006556757</v>
       </c>
       <c r="F59">
-        <v>-0.09448345851776957</v>
+        <v>0.0379534201589416</v>
       </c>
       <c r="G59">
-        <v>0.03254074547781709</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01445429000651522</v>
+      </c>
+      <c r="H59">
+        <v>0.01817175003029589</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1643445119675545</v>
+        <v>-0.1722688932278196</v>
       </c>
       <c r="C60">
-        <v>-0.07231159634845857</v>
+        <v>0.03818314955489251</v>
       </c>
       <c r="D60">
-        <v>-0.009611448836971802</v>
+        <v>0.02381983367427914</v>
       </c>
       <c r="E60">
-        <v>-0.03362711178651103</v>
+        <v>-0.05390674085903314</v>
       </c>
       <c r="F60">
-        <v>-0.1349233868776877</v>
+        <v>-0.03036791122667397</v>
       </c>
       <c r="G60">
-        <v>0.3423277129150709</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.1302293105570078</v>
+      </c>
+      <c r="H60">
+        <v>0.3836263523581345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02226920943387276</v>
+        <v>-0.02181335400966753</v>
       </c>
       <c r="C61">
-        <v>-0.00759054786491159</v>
+        <v>0.006394160555075638</v>
       </c>
       <c r="D61">
-        <v>0.0009057501899225472</v>
+        <v>0.04263974269759865</v>
       </c>
       <c r="E61">
-        <v>-0.02473239030208136</v>
+        <v>0.0007435741340371025</v>
       </c>
       <c r="F61">
-        <v>-0.02467456852643746</v>
+        <v>-0.01808909251645893</v>
       </c>
       <c r="G61">
-        <v>-0.01101206489696104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.03450037412285001</v>
+      </c>
+      <c r="H61">
+        <v>0.03768037792302919</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01687697353830899</v>
+        <v>-0.01345410771882798</v>
       </c>
       <c r="C63">
-        <v>-0.01274965808538259</v>
+        <v>-0.001929751437429193</v>
       </c>
       <c r="D63">
-        <v>-0.0006847240406801479</v>
+        <v>0.01210229678024658</v>
       </c>
       <c r="E63">
-        <v>-0.04215332623302968</v>
+        <v>0.001681036347958643</v>
       </c>
       <c r="F63">
-        <v>-0.01048129514514966</v>
+        <v>-0.01487038605847631</v>
       </c>
       <c r="G63">
-        <v>-0.0434646939960047</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01712166691595881</v>
+      </c>
+      <c r="H63">
+        <v>-0.0124853423637782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03886417343980517</v>
+        <v>-0.04246984797048262</v>
       </c>
       <c r="C64">
-        <v>0.01228362168177557</v>
+        <v>0.01100072540434308</v>
       </c>
       <c r="D64">
-        <v>0.01829820006478924</v>
+        <v>0.0390806625763532</v>
       </c>
       <c r="E64">
-        <v>-0.0386223897246727</v>
+        <v>0.007605039534328092</v>
       </c>
       <c r="F64">
-        <v>-0.02472686046671658</v>
+        <v>-0.01057979585064854</v>
       </c>
       <c r="G64">
-        <v>-0.06382541230224369</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.02132904103580578</v>
+      </c>
+      <c r="H64">
+        <v>0.02578717727215967</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.01450562513136661</v>
+        <v>-0.02847498424224821</v>
       </c>
       <c r="C65">
-        <v>-0.01003474798790484</v>
+        <v>-0.004849298040976108</v>
       </c>
       <c r="D65">
-        <v>-0.009488008964500543</v>
+        <v>0.06022761679191263</v>
       </c>
       <c r="E65">
-        <v>-0.01967950932901093</v>
+        <v>0.005232501799141692</v>
       </c>
       <c r="F65">
-        <v>-0.0101952590786746</v>
+        <v>-0.0344086073630616</v>
       </c>
       <c r="G65">
-        <v>0.009732203766783451</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.008088556690233695</v>
+      </c>
+      <c r="H65">
+        <v>0.05863754799912813</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04229209757443337</v>
+        <v>-0.02695871726609357</v>
       </c>
       <c r="C66">
-        <v>-0.02770902858865532</v>
+        <v>0.005610510198578034</v>
       </c>
       <c r="D66">
-        <v>0.007543195768009021</v>
+        <v>0.08744322066851866</v>
       </c>
       <c r="E66">
-        <v>-0.04537405058927753</v>
+        <v>-0.01171642722472311</v>
       </c>
       <c r="F66">
-        <v>-0.04728706872411036</v>
+        <v>-0.03751355485638156</v>
       </c>
       <c r="G66">
-        <v>0.001060943232581764</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.05058048821007234</v>
+      </c>
+      <c r="H66">
+        <v>0.0597579086838484</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01689005064090103</v>
+        <v>-0.04306667299350758</v>
       </c>
       <c r="C67">
-        <v>0.01488173743813192</v>
+        <v>0.02028367911918451</v>
       </c>
       <c r="D67">
-        <v>-0.001924749332365419</v>
+        <v>-0.002445141000863753</v>
       </c>
       <c r="E67">
-        <v>0.02384704739286921</v>
+        <v>0.002721278905236666</v>
       </c>
       <c r="F67">
-        <v>-0.01945926206704113</v>
+        <v>-0.0132156292868641</v>
       </c>
       <c r="G67">
-        <v>0.01752888246229925</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01926750760619507</v>
+      </c>
+      <c r="H67">
+        <v>0.03333669541533</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07161309171572923</v>
+        <v>-0.1604233895200671</v>
       </c>
       <c r="C68">
-        <v>0.02206445683012856</v>
+        <v>0.02268302093116069</v>
       </c>
       <c r="D68">
-        <v>0.07444370278325244</v>
+        <v>-0.2167638215747817</v>
       </c>
       <c r="E68">
-        <v>0.1755631422739191</v>
+        <v>-0.01926467584877562</v>
       </c>
       <c r="F68">
-        <v>-0.08359063225214713</v>
+        <v>0.05811347454891606</v>
       </c>
       <c r="G68">
-        <v>0.06317708197952951</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01037512886730469</v>
+      </c>
+      <c r="H68">
+        <v>-0.04080251444844975</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.07424577678673276</v>
+        <v>-0.05876635614847779</v>
       </c>
       <c r="C69">
-        <v>-0.03384267164292445</v>
+        <v>0.0287288367380132</v>
       </c>
       <c r="D69">
-        <v>0.02105918391355924</v>
+        <v>0.03980631064275207</v>
       </c>
       <c r="E69">
-        <v>-0.0139804028759065</v>
+        <v>-0.005362761501206501</v>
       </c>
       <c r="F69">
-        <v>-0.01529190455231445</v>
+        <v>-0.0272097428573032</v>
       </c>
       <c r="G69">
-        <v>-0.07634121507407823</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.00126120039945839</v>
+      </c>
+      <c r="H69">
+        <v>-0.009037372025002379</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.08592361903535267</v>
+        <v>-0.1512291455866192</v>
       </c>
       <c r="C71">
-        <v>0.004001133947020674</v>
+        <v>0.02998804157439467</v>
       </c>
       <c r="D71">
-        <v>0.06450959422331504</v>
+        <v>-0.1996678668248706</v>
       </c>
       <c r="E71">
-        <v>0.2071156246886247</v>
+        <v>-0.01983423843896871</v>
       </c>
       <c r="F71">
-        <v>-0.09417844662607719</v>
+        <v>0.06661578568696738</v>
       </c>
       <c r="G71">
-        <v>0.02792059698290439</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.007601173369999481</v>
+      </c>
+      <c r="H71">
+        <v>-0.02512077487634076</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1071482614805912</v>
+        <v>-0.08437860482472283</v>
       </c>
       <c r="C72">
-        <v>-0.04746663824403147</v>
+        <v>0.04091454239498003</v>
       </c>
       <c r="D72">
-        <v>0.07386393878781801</v>
+        <v>0.08495536453433458</v>
       </c>
       <c r="E72">
-        <v>-0.07062765759100502</v>
+        <v>-0.01022765528982976</v>
       </c>
       <c r="F72">
-        <v>-0.1056431706371925</v>
+        <v>-0.08205391239249336</v>
       </c>
       <c r="G72">
-        <v>0.1257159629237437</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.1058585215494764</v>
+      </c>
+      <c r="H72">
+        <v>0.1564341059484382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2448896668363587</v>
+        <v>-0.2415904961262953</v>
       </c>
       <c r="C73">
-        <v>-0.06910018059669416</v>
+        <v>0.05109793707037346</v>
       </c>
       <c r="D73">
-        <v>0.007909777499206795</v>
+        <v>0.06937442939466384</v>
       </c>
       <c r="E73">
-        <v>0.03460164605931376</v>
+        <v>-0.08091973680168583</v>
       </c>
       <c r="F73">
-        <v>-0.235336070306855</v>
+        <v>-0.02606212457590235</v>
       </c>
       <c r="G73">
-        <v>0.499316669812509</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1754494914366955</v>
+      </c>
+      <c r="H73">
+        <v>0.5100643180670811</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1317794200695953</v>
+        <v>-0.1158939783171893</v>
       </c>
       <c r="C74">
-        <v>-0.04247968550704639</v>
+        <v>0.05243352829176348</v>
       </c>
       <c r="D74">
-        <v>0.03588577389142041</v>
+        <v>0.09949232520157826</v>
       </c>
       <c r="E74">
-        <v>-0.01546725086331698</v>
+        <v>-0.006627925360842311</v>
       </c>
       <c r="F74">
-        <v>0.09299614368291373</v>
+        <v>-0.06751490966188836</v>
       </c>
       <c r="G74">
-        <v>0.0232734253623189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.06990798056484608</v>
+      </c>
+      <c r="H74">
+        <v>-0.01216378237132053</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2170084181681416</v>
+        <v>-0.222826771893393</v>
       </c>
       <c r="C75">
-        <v>-0.116097570202633</v>
+        <v>0.1026845474391997</v>
       </c>
       <c r="D75">
-        <v>0.1150533606746134</v>
+        <v>0.1577230305306739</v>
       </c>
       <c r="E75">
-        <v>-0.07791903614764308</v>
+        <v>-0.02648172676693848</v>
       </c>
       <c r="F75">
-        <v>0.1560031166579302</v>
+        <v>-0.1529083556472635</v>
       </c>
       <c r="G75">
-        <v>-0.0461532686255839</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1432357132093258</v>
+      </c>
+      <c r="H75">
+        <v>-0.08919032339464215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2684560411878022</v>
+        <v>-0.1977588568320535</v>
       </c>
       <c r="C76">
-        <v>-0.06285788409392694</v>
+        <v>0.09603075786001067</v>
       </c>
       <c r="D76">
-        <v>0.1552632850433963</v>
+        <v>0.1543453477458697</v>
       </c>
       <c r="E76">
-        <v>-0.05094816948108507</v>
+        <v>0.01755933478184942</v>
       </c>
       <c r="F76">
-        <v>0.1779159543747744</v>
+        <v>-0.1544703634757041</v>
       </c>
       <c r="G76">
-        <v>-0.06394881060421147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1550172320994319</v>
+      </c>
+      <c r="H76">
+        <v>-0.09745694655170295</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1458637138253268</v>
+        <v>-0.07239053147156958</v>
       </c>
       <c r="C77">
-        <v>-0.03959439905820009</v>
+        <v>0.01007885129279179</v>
       </c>
       <c r="D77">
-        <v>-0.07347277698603873</v>
+        <v>0.07627211717671283</v>
       </c>
       <c r="E77">
-        <v>-0.1055841901734202</v>
+        <v>-0.01558521474316265</v>
       </c>
       <c r="F77">
-        <v>-0.2107937945860072</v>
+        <v>0.03144547886174628</v>
       </c>
       <c r="G77">
-        <v>-0.1609937933734559</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1278725653092015</v>
+      </c>
+      <c r="H77">
+        <v>-0.07201621142578318</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.05761409044464624</v>
+        <v>-0.03659350741326315</v>
       </c>
       <c r="C78">
-        <v>-0.03330293938735485</v>
+        <v>0.01044204910679248</v>
       </c>
       <c r="D78">
-        <v>-0.001808170599825208</v>
+        <v>0.06385907225070903</v>
       </c>
       <c r="E78">
-        <v>-0.1008250449388756</v>
+        <v>-0.001175040802959887</v>
       </c>
       <c r="F78">
-        <v>-0.04393856912284318</v>
+        <v>-0.03185775504047345</v>
       </c>
       <c r="G78">
-        <v>-0.05197465755033816</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06317687244042088</v>
+      </c>
+      <c r="H78">
+        <v>0.02907838473438982</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2186000590706399</v>
+        <v>-0.1546861093799821</v>
       </c>
       <c r="C80">
-        <v>0.9200833153400613</v>
+        <v>0.04724271945334281</v>
       </c>
       <c r="D80">
-        <v>0.1809344445557922</v>
+        <v>0.05247761182029647</v>
       </c>
       <c r="E80">
-        <v>-0.2308581775190905</v>
+        <v>0.9629441412719435</v>
       </c>
       <c r="F80">
-        <v>-0.01488275848670093</v>
+        <v>0.1396108826956423</v>
       </c>
       <c r="G80">
-        <v>0.02684637912684727</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.0837941329281264</v>
+      </c>
+      <c r="H80">
+        <v>0.007320731549160746</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1579600136078317</v>
+        <v>-0.1467581369653383</v>
       </c>
       <c r="C81">
-        <v>-0.05771551511165034</v>
+        <v>0.06672910508674422</v>
       </c>
       <c r="D81">
-        <v>0.1030356712218115</v>
+        <v>0.1001271005838</v>
       </c>
       <c r="E81">
-        <v>-0.04189646564846609</v>
+        <v>0.0008212081831363725</v>
       </c>
       <c r="F81">
-        <v>0.1530532247315239</v>
+        <v>-0.09793678569177827</v>
       </c>
       <c r="G81">
-        <v>-0.0118747208709629</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.09623449762819486</v>
+      </c>
+      <c r="H81">
+        <v>-0.06829392153159383</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05400980198673121</v>
+        <v>-0.03568311119147211</v>
       </c>
       <c r="C83">
-        <v>-0.03502756306765192</v>
+        <v>0.007081455903084601</v>
       </c>
       <c r="D83">
-        <v>-0.02837053026110165</v>
+        <v>0.02412295008246694</v>
       </c>
       <c r="E83">
-        <v>-0.03323993365494553</v>
+        <v>-0.01397066706864273</v>
       </c>
       <c r="F83">
-        <v>-0.05815615048961104</v>
+        <v>-0.005498829196247021</v>
       </c>
       <c r="G83">
-        <v>-0.05035792318370296</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05921057741574124</v>
+      </c>
+      <c r="H83">
+        <v>0.01761310767679307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2373372324805385</v>
+        <v>-0.2098104528747039</v>
       </c>
       <c r="C85">
-        <v>-0.09231671316354517</v>
+        <v>0.08494961236731866</v>
       </c>
       <c r="D85">
-        <v>0.1196731856147498</v>
+        <v>0.1606299772963191</v>
       </c>
       <c r="E85">
-        <v>-0.05149480585260881</v>
+        <v>-0.01861942302526421</v>
       </c>
       <c r="F85">
-        <v>0.1665738297652052</v>
+        <v>-0.133680587575014</v>
       </c>
       <c r="G85">
-        <v>-0.07399457072001353</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1559765389099945</v>
+      </c>
+      <c r="H85">
+        <v>-0.06024629069849933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.001326821377730325</v>
+        <v>-0.01835230192829093</v>
       </c>
       <c r="C86">
-        <v>0.006827057098140623</v>
+        <v>-0.0003387179149430121</v>
       </c>
       <c r="D86">
-        <v>-0.01683299178100078</v>
+        <v>0.003904477181730235</v>
       </c>
       <c r="E86">
-        <v>-0.04707769446325503</v>
+        <v>-0.01147403483277125</v>
       </c>
       <c r="F86">
-        <v>-0.06712170521710004</v>
+        <v>0.01097514751930712</v>
       </c>
       <c r="G86">
-        <v>-0.0200976188399135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.08824611432624772</v>
+      </c>
+      <c r="H86">
+        <v>0.03808682681411024</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03379018035751688</v>
+        <v>-0.02856087395662042</v>
       </c>
       <c r="C87">
-        <v>-0.009902391119771748</v>
+        <v>0.003125480984102585</v>
       </c>
       <c r="D87">
-        <v>-0.005116385795930448</v>
+        <v>0.03225427048552244</v>
       </c>
       <c r="E87">
-        <v>-0.03002647845258025</v>
+        <v>-0.003588899563304643</v>
       </c>
       <c r="F87">
-        <v>-0.08857992504734674</v>
+        <v>-0.0103658504004994</v>
       </c>
       <c r="G87">
-        <v>0.001361214962509232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.09769641824409737</v>
+      </c>
+      <c r="H87">
+        <v>0.02822144711060906</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01154097814823801</v>
+        <v>-0.03809405142861991</v>
       </c>
       <c r="C88">
-        <v>0.01645097995103799</v>
+        <v>-0.0101245897189797</v>
       </c>
       <c r="D88">
-        <v>0.02185458507409321</v>
+        <v>0.00241083503069457</v>
       </c>
       <c r="E88">
-        <v>0.005041660949270866</v>
+        <v>0.009445430939298749</v>
       </c>
       <c r="F88">
-        <v>-0.03213502220854932</v>
+        <v>-0.01391513105043648</v>
       </c>
       <c r="G88">
-        <v>-0.06522850409933852</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.003507423563444785</v>
+      </c>
+      <c r="H88">
+        <v>0.01002648545863479</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09931242045895466</v>
+        <v>-0.2442447152349438</v>
       </c>
       <c r="C89">
-        <v>0.002663896131920402</v>
+        <v>0.04408478870814658</v>
       </c>
       <c r="D89">
-        <v>0.08314502704759527</v>
+        <v>-0.3407374060476449</v>
       </c>
       <c r="E89">
-        <v>0.271320978688706</v>
+        <v>-0.05081588077434243</v>
       </c>
       <c r="F89">
-        <v>-0.1472773334350929</v>
+        <v>0.0725617520718367</v>
       </c>
       <c r="G89">
-        <v>-0.02377268455936135</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.006385086096555637</v>
+      </c>
+      <c r="H89">
+        <v>-0.03879173199347852</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09910395961871113</v>
+        <v>-0.1995707736821974</v>
       </c>
       <c r="C90">
-        <v>0.0523692237454054</v>
+        <v>0.03714834606807618</v>
       </c>
       <c r="D90">
-        <v>0.1039127805956246</v>
+        <v>-0.3019972801333651</v>
       </c>
       <c r="E90">
-        <v>0.3023834391836109</v>
+        <v>-0.02823990961100309</v>
       </c>
       <c r="F90">
-        <v>-0.1148418846666947</v>
+        <v>0.08508667713730481</v>
       </c>
       <c r="G90">
-        <v>-0.00227264243550148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.04901793769656554</v>
+      </c>
+      <c r="H90">
+        <v>-0.04987139611854031</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2900453606830893</v>
+        <v>-0.2312133279484497</v>
       </c>
       <c r="C91">
-        <v>-0.1021368427427446</v>
+        <v>0.1047156069403433</v>
       </c>
       <c r="D91">
-        <v>0.1163028784841303</v>
+        <v>0.1541877331296848</v>
       </c>
       <c r="E91">
-        <v>-0.02529383293875625</v>
+        <v>-0.01759801037932337</v>
       </c>
       <c r="F91">
-        <v>0.2431976265096133</v>
+        <v>-0.1477278550291471</v>
       </c>
       <c r="G91">
-        <v>-0.03559938842463854</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1882206209488578</v>
+      </c>
+      <c r="H91">
+        <v>-0.1221571889482737</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1660273107416244</v>
+        <v>-0.2458802398813217</v>
       </c>
       <c r="C92">
-        <v>0.05401562724466087</v>
+        <v>0.0992062987738217</v>
       </c>
       <c r="D92">
-        <v>0.1527121593625793</v>
+        <v>-0.2383834397675186</v>
       </c>
       <c r="E92">
-        <v>0.4753182428200079</v>
+        <v>-0.01171236182259882</v>
       </c>
       <c r="F92">
-        <v>-0.07848153132157053</v>
+        <v>0.0479100786570512</v>
       </c>
       <c r="G92">
-        <v>-0.4578718837422854</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.04647733911641495</v>
+      </c>
+      <c r="H92">
+        <v>-0.1429268814446327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09960404853459644</v>
+        <v>-0.2228694718184988</v>
       </c>
       <c r="C93">
-        <v>0.05930114399951181</v>
+        <v>0.04868303964084569</v>
       </c>
       <c r="D93">
-        <v>0.1047954346144333</v>
+        <v>-0.328086646445153</v>
       </c>
       <c r="E93">
-        <v>0.4107322049585104</v>
+        <v>-0.04064136340603848</v>
       </c>
       <c r="F93">
-        <v>-0.08229537735860236</v>
+        <v>0.1082534911521321</v>
       </c>
       <c r="G93">
-        <v>0.07621166618031543</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.06127632473065133</v>
+      </c>
+      <c r="H93">
+        <v>0.009745837347846679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2707457322707382</v>
+        <v>-0.2513649575490491</v>
       </c>
       <c r="C94">
-        <v>-0.1106806817727794</v>
+        <v>0.09414663534488649</v>
       </c>
       <c r="D94">
-        <v>0.2007002310667853</v>
+        <v>0.1359661678191645</v>
       </c>
       <c r="E94">
-        <v>-0.03268362540490718</v>
+        <v>-0.03340047299911051</v>
       </c>
       <c r="F94">
-        <v>0.2650893624342207</v>
+        <v>-0.1884204520264433</v>
       </c>
       <c r="G94">
-        <v>0.04758288474573226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1899423910256005</v>
+      </c>
+      <c r="H94">
+        <v>-0.1294717496069422</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07732108203371327</v>
+        <v>-0.05728564606600005</v>
       </c>
       <c r="C95">
-        <v>-0.07706980488343204</v>
+        <v>0.0307807366213624</v>
       </c>
       <c r="D95">
-        <v>-0.03385951776936206</v>
+        <v>0.09408920798585227</v>
       </c>
       <c r="E95">
-        <v>-0.09458145421609694</v>
+        <v>-0.07794930344325157</v>
       </c>
       <c r="F95">
-        <v>-0.01592927146517913</v>
+        <v>-0.009020821117411575</v>
       </c>
       <c r="G95">
-        <v>-0.2039324224907279</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.06049618984832219</v>
+      </c>
+      <c r="H95">
+        <v>0.007762049854739461</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1846056305265574</v>
+        <v>-0.182634115413231</v>
       </c>
       <c r="C98">
-        <v>-0.04364906577337983</v>
+        <v>0.07133633683717239</v>
       </c>
       <c r="D98">
-        <v>-0.002080656502995198</v>
+        <v>0.04064228435080165</v>
       </c>
       <c r="E98">
-        <v>0.05769450936658035</v>
+        <v>-0.05292078009235227</v>
       </c>
       <c r="F98">
-        <v>-0.1032403148494808</v>
+        <v>0.0001144759466388963</v>
       </c>
       <c r="G98">
-        <v>0.3633462262206408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.149945057817767</v>
+      </c>
+      <c r="H98">
+        <v>0.3712934478391686</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006690970991959538</v>
+        <v>-0.01529201808274686</v>
       </c>
       <c r="C101">
-        <v>-0.01391070935577484</v>
+        <v>-0.0003647158597845869</v>
       </c>
       <c r="D101">
-        <v>0.002444121060098536</v>
+        <v>0.008770782983679736</v>
       </c>
       <c r="E101">
-        <v>-0.1179212377844592</v>
+        <v>0.00437074791539593</v>
       </c>
       <c r="F101">
-        <v>-0.1504822705256836</v>
+        <v>-0.02075527820018778</v>
       </c>
       <c r="G101">
-        <v>-0.119489134596331</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1058280549003241</v>
+      </c>
+      <c r="H101">
+        <v>-0.06656837953645377</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1010850347782276</v>
+        <v>-0.1026556948532371</v>
       </c>
       <c r="C102">
-        <v>-0.03320642541792601</v>
+        <v>0.03396615576396043</v>
       </c>
       <c r="D102">
-        <v>0.03974033379809727</v>
+        <v>0.07896031822727348</v>
       </c>
       <c r="E102">
-        <v>-0.05782471723587467</v>
+        <v>-0.001925964906911549</v>
       </c>
       <c r="F102">
-        <v>0.1234892366381359</v>
+        <v>-0.0667008164142055</v>
       </c>
       <c r="G102">
-        <v>-0.0702895908055708</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.0876351556832875</v>
+      </c>
+      <c r="H102">
+        <v>-0.05293722764616523</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02686830650593738</v>
+        <v>-0.01940938115183832</v>
       </c>
       <c r="C103">
-        <v>-0.01471367860320906</v>
+        <v>0.007623718402307814</v>
       </c>
       <c r="D103">
-        <v>0.01379529668607121</v>
+        <v>0.0182864506721918</v>
       </c>
       <c r="E103">
-        <v>-0.006945753399878719</v>
+        <v>0.005962145206100269</v>
       </c>
       <c r="F103">
-        <v>0.01337720559089609</v>
+        <v>-0.01828140468161913</v>
       </c>
       <c r="G103">
-        <v>-0.02079049046726845</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.003447257900192248</v>
+      </c>
+      <c r="H103">
+        <v>-0.01099693317485283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.2791313423286593</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9436657317322478</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.001389755614494669</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.023971111316461</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1445882430264954</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.02534060736023675</v>
+      </c>
+      <c r="H104">
+        <v>-0.02834353867603313</v>
       </c>
     </row>
   </sheetData>
